--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_173.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_173.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32240-d223285-Reviews-Crowne_Plaza_Los_Angeles_Commerce_Casino-Commerce_California.html</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>261</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Crowne-Plaza-Hotel-Los-Angeles-Commerce-Casino.h533227.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_173.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_173.xlsx
@@ -3900,7 +3900,7 @@
         <v>41365</v>
       </c>
       <c r="B2" t="n">
-        <v>133901</v>
+        <v>164758</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -4022,7 +4022,7 @@
         <v>41365</v>
       </c>
       <c r="B4" t="n">
-        <v>133902</v>
+        <v>164759</v>
       </c>
       <c r="C4" t="s">
         <v>64</v>
@@ -4217,7 +4217,7 @@
         <v>41365</v>
       </c>
       <c r="B7" t="n">
-        <v>133903</v>
+        <v>164760</v>
       </c>
       <c r="C7" t="s">
         <v>94</v>
@@ -4274,7 +4274,7 @@
         <v>41365</v>
       </c>
       <c r="B8" t="n">
-        <v>133904</v>
+        <v>164761</v>
       </c>
       <c r="C8" t="s">
         <v>101</v>
@@ -4339,7 +4339,7 @@
         <v>41365</v>
       </c>
       <c r="B9" t="n">
-        <v>133905</v>
+        <v>164762</v>
       </c>
       <c r="C9" t="s">
         <v>111</v>
@@ -4465,7 +4465,7 @@
         <v>41365</v>
       </c>
       <c r="B11" t="n">
-        <v>133906</v>
+        <v>164763</v>
       </c>
       <c r="C11" t="s">
         <v>124</v>
@@ -4591,7 +4591,7 @@
         <v>41365</v>
       </c>
       <c r="B13" t="n">
-        <v>133907</v>
+        <v>164764</v>
       </c>
       <c r="C13" t="s">
         <v>140</v>
@@ -4652,7 +4652,7 @@
         <v>41365</v>
       </c>
       <c r="B14" t="n">
-        <v>133908</v>
+        <v>164765</v>
       </c>
       <c r="C14" t="s">
         <v>146</v>
@@ -4709,7 +4709,7 @@
         <v>41365</v>
       </c>
       <c r="B15" t="n">
-        <v>133909</v>
+        <v>164766</v>
       </c>
       <c r="C15" t="s">
         <v>152</v>
@@ -4770,7 +4770,7 @@
         <v>41365</v>
       </c>
       <c r="B16" t="n">
-        <v>133910</v>
+        <v>164767</v>
       </c>
       <c r="C16" t="s">
         <v>159</v>
@@ -4831,7 +4831,7 @@
         <v>41365</v>
       </c>
       <c r="B17" t="n">
-        <v>133911</v>
+        <v>164768</v>
       </c>
       <c r="C17" t="s">
         <v>166</v>
@@ -4963,7 +4963,7 @@
         <v>41365</v>
       </c>
       <c r="B19" t="n">
-        <v>133912</v>
+        <v>164769</v>
       </c>
       <c r="C19" t="s">
         <v>184</v>
@@ -5024,7 +5024,7 @@
         <v>41365</v>
       </c>
       <c r="B20" t="n">
-        <v>133913</v>
+        <v>164770</v>
       </c>
       <c r="C20" t="s">
         <v>190</v>
@@ -5085,7 +5085,7 @@
         <v>41365</v>
       </c>
       <c r="B21" t="n">
-        <v>133914</v>
+        <v>164771</v>
       </c>
       <c r="C21" t="s">
         <v>196</v>
@@ -5150,7 +5150,7 @@
         <v>41365</v>
       </c>
       <c r="B22" t="n">
-        <v>133915</v>
+        <v>164772</v>
       </c>
       <c r="C22" t="s">
         <v>202</v>
@@ -5211,7 +5211,7 @@
         <v>41365</v>
       </c>
       <c r="B23" t="n">
-        <v>133916</v>
+        <v>164773</v>
       </c>
       <c r="C23" t="s">
         <v>209</v>
@@ -5278,7 +5278,7 @@
         <v>41365</v>
       </c>
       <c r="B24" t="n">
-        <v>133917</v>
+        <v>164774</v>
       </c>
       <c r="C24" t="s">
         <v>218</v>
@@ -5339,7 +5339,7 @@
         <v>41365</v>
       </c>
       <c r="B25" t="n">
-        <v>133918</v>
+        <v>164775</v>
       </c>
       <c r="C25" t="s">
         <v>225</v>
@@ -5410,7 +5410,7 @@
         <v>41365</v>
       </c>
       <c r="B26" t="n">
-        <v>133919</v>
+        <v>164776</v>
       </c>
       <c r="C26" t="s">
         <v>234</v>
@@ -5536,7 +5536,7 @@
         <v>41365</v>
       </c>
       <c r="B28" t="n">
-        <v>133920</v>
+        <v>164777</v>
       </c>
       <c r="C28" t="s">
         <v>251</v>
@@ -5597,7 +5597,7 @@
         <v>41365</v>
       </c>
       <c r="B29" t="n">
-        <v>133921</v>
+        <v>164778</v>
       </c>
       <c r="C29" t="s">
         <v>257</v>
@@ -5731,7 +5731,7 @@
         <v>41365</v>
       </c>
       <c r="B31" t="n">
-        <v>133922</v>
+        <v>164779</v>
       </c>
       <c r="C31" t="s">
         <v>272</v>
@@ -5798,7 +5798,7 @@
         <v>41365</v>
       </c>
       <c r="B32" t="n">
-        <v>133923</v>
+        <v>164780</v>
       </c>
       <c r="C32" t="s">
         <v>277</v>
@@ -5863,7 +5863,7 @@
         <v>41365</v>
       </c>
       <c r="B33" t="n">
-        <v>133924</v>
+        <v>164781</v>
       </c>
       <c r="C33" t="s">
         <v>285</v>
@@ -6050,7 +6050,7 @@
         <v>41365</v>
       </c>
       <c r="B36" t="n">
-        <v>133925</v>
+        <v>164782</v>
       </c>
       <c r="C36" t="s">
         <v>303</v>
@@ -6117,7 +6117,7 @@
         <v>41365</v>
       </c>
       <c r="B37" t="n">
-        <v>133926</v>
+        <v>164783</v>
       </c>
       <c r="C37" t="s">
         <v>311</v>
@@ -6178,7 +6178,7 @@
         <v>41365</v>
       </c>
       <c r="B38" t="n">
-        <v>133927</v>
+        <v>164784</v>
       </c>
       <c r="C38" t="s">
         <v>317</v>
@@ -6245,7 +6245,7 @@
         <v>41365</v>
       </c>
       <c r="B39" t="n">
-        <v>133928</v>
+        <v>164785</v>
       </c>
       <c r="C39" t="s">
         <v>325</v>
@@ -6306,7 +6306,7 @@
         <v>41365</v>
       </c>
       <c r="B40" t="n">
-        <v>133929</v>
+        <v>164786</v>
       </c>
       <c r="C40" t="s">
         <v>332</v>
@@ -6375,7 +6375,7 @@
         <v>41365</v>
       </c>
       <c r="B41" t="n">
-        <v>133930</v>
+        <v>164787</v>
       </c>
       <c r="C41" t="s">
         <v>341</v>
@@ -6501,7 +6501,7 @@
         <v>41365</v>
       </c>
       <c r="B43" t="n">
-        <v>133931</v>
+        <v>164788</v>
       </c>
       <c r="C43" t="s">
         <v>360</v>
@@ -6566,7 +6566,7 @@
         <v>41365</v>
       </c>
       <c r="B44" t="n">
-        <v>133932</v>
+        <v>164789</v>
       </c>
       <c r="C44" t="s">
         <v>368</v>
@@ -6627,7 +6627,7 @@
         <v>41365</v>
       </c>
       <c r="B45" t="n">
-        <v>133933</v>
+        <v>164790</v>
       </c>
       <c r="C45" t="s">
         <v>377</v>
@@ -6692,7 +6692,7 @@
         <v>41365</v>
       </c>
       <c r="B46" t="n">
-        <v>133934</v>
+        <v>164791</v>
       </c>
       <c r="C46" t="s">
         <v>387</v>
@@ -6826,7 +6826,7 @@
         <v>41365</v>
       </c>
       <c r="B48" t="n">
-        <v>133935</v>
+        <v>164792</v>
       </c>
       <c r="C48" t="s">
         <v>404</v>
@@ -6891,7 +6891,7 @@
         <v>41365</v>
       </c>
       <c r="B49" t="n">
-        <v>133936</v>
+        <v>164793</v>
       </c>
       <c r="C49" t="s">
         <v>412</v>
@@ -6960,7 +6960,7 @@
         <v>41365</v>
       </c>
       <c r="B50" t="n">
-        <v>133937</v>
+        <v>164794</v>
       </c>
       <c r="C50" t="s">
         <v>421</v>
@@ -7086,7 +7086,7 @@
         <v>41365</v>
       </c>
       <c r="B52" t="n">
-        <v>133938</v>
+        <v>164795</v>
       </c>
       <c r="C52" t="s">
         <v>437</v>
@@ -7157,7 +7157,7 @@
         <v>41365</v>
       </c>
       <c r="B53" t="n">
-        <v>133939</v>
+        <v>164796</v>
       </c>
       <c r="C53" t="s">
         <v>446</v>
@@ -7222,7 +7222,7 @@
         <v>41365</v>
       </c>
       <c r="B54" t="n">
-        <v>133940</v>
+        <v>164797</v>
       </c>
       <c r="C54" t="s">
         <v>455</v>
@@ -7291,7 +7291,7 @@
         <v>41365</v>
       </c>
       <c r="B55" t="n">
-        <v>133941</v>
+        <v>164798</v>
       </c>
       <c r="C55" t="s">
         <v>462</v>
@@ -7362,7 +7362,7 @@
         <v>41365</v>
       </c>
       <c r="B56" t="n">
-        <v>133942</v>
+        <v>164799</v>
       </c>
       <c r="C56" t="s">
         <v>470</v>
@@ -7427,7 +7427,7 @@
         <v>41365</v>
       </c>
       <c r="B57" t="n">
-        <v>133943</v>
+        <v>164800</v>
       </c>
       <c r="C57" t="s">
         <v>479</v>
@@ -7628,7 +7628,7 @@
         <v>41365</v>
       </c>
       <c r="B60" t="n">
-        <v>133944</v>
+        <v>164801</v>
       </c>
       <c r="C60" t="s">
         <v>503</v>
@@ -7699,7 +7699,7 @@
         <v>41365</v>
       </c>
       <c r="B61" t="n">
-        <v>133945</v>
+        <v>164802</v>
       </c>
       <c r="C61" t="s">
         <v>512</v>
@@ -7770,7 +7770,7 @@
         <v>41365</v>
       </c>
       <c r="B62" t="n">
-        <v>133946</v>
+        <v>164803</v>
       </c>
       <c r="C62" t="s">
         <v>520</v>
@@ -7975,7 +7975,7 @@
         <v>41365</v>
       </c>
       <c r="B65" t="n">
-        <v>133947</v>
+        <v>164804</v>
       </c>
       <c r="C65" t="s">
         <v>543</v>
@@ -8036,7 +8036,7 @@
         <v>41365</v>
       </c>
       <c r="B66" t="n">
-        <v>133948</v>
+        <v>164805</v>
       </c>
       <c r="C66" t="s">
         <v>552</v>
@@ -8101,7 +8101,7 @@
         <v>41365</v>
       </c>
       <c r="B67" t="n">
-        <v>133949</v>
+        <v>164806</v>
       </c>
       <c r="C67" t="s">
         <v>561</v>
@@ -8298,7 +8298,7 @@
         <v>41365</v>
       </c>
       <c r="B70" t="n">
-        <v>133950</v>
+        <v>164807</v>
       </c>
       <c r="C70" t="s">
         <v>587</v>
@@ -8432,7 +8432,7 @@
         <v>41365</v>
       </c>
       <c r="B72" t="n">
-        <v>133951</v>
+        <v>164808</v>
       </c>
       <c r="C72" t="s">
         <v>604</v>
@@ -8503,7 +8503,7 @@
         <v>41365</v>
       </c>
       <c r="B73" t="n">
-        <v>133952</v>
+        <v>164809</v>
       </c>
       <c r="C73" t="s">
         <v>614</v>
@@ -8637,7 +8637,7 @@
         <v>41365</v>
       </c>
       <c r="B75" t="n">
-        <v>133953</v>
+        <v>164810</v>
       </c>
       <c r="C75" t="s">
         <v>633</v>
@@ -8706,7 +8706,7 @@
         <v>41365</v>
       </c>
       <c r="B76" t="n">
-        <v>133954</v>
+        <v>164811</v>
       </c>
       <c r="C76" t="s">
         <v>643</v>
@@ -8771,7 +8771,7 @@
         <v>41365</v>
       </c>
       <c r="B77" t="n">
-        <v>133955</v>
+        <v>164812</v>
       </c>
       <c r="C77" t="s">
         <v>652</v>
@@ -8964,7 +8964,7 @@
         <v>41365</v>
       </c>
       <c r="B80" t="n">
-        <v>133956</v>
+        <v>164813</v>
       </c>
       <c r="C80" t="s">
         <v>671</v>
@@ -9035,7 +9035,7 @@
         <v>41365</v>
       </c>
       <c r="B81" t="n">
-        <v>133957</v>
+        <v>164814</v>
       </c>
       <c r="C81" t="s">
         <v>681</v>
@@ -9100,7 +9100,7 @@
         <v>41365</v>
       </c>
       <c r="B82" t="n">
-        <v>133958</v>
+        <v>164815</v>
       </c>
       <c r="C82" t="s">
         <v>690</v>
@@ -9169,7 +9169,7 @@
         <v>41365</v>
       </c>
       <c r="B83" t="n">
-        <v>133959</v>
+        <v>164816</v>
       </c>
       <c r="C83" t="s">
         <v>697</v>
@@ -9230,7 +9230,7 @@
         <v>41365</v>
       </c>
       <c r="B84" t="n">
-        <v>133960</v>
+        <v>164817</v>
       </c>
       <c r="C84" t="s">
         <v>705</v>
@@ -9295,7 +9295,7 @@
         <v>41365</v>
       </c>
       <c r="B85" t="n">
-        <v>133961</v>
+        <v>164818</v>
       </c>
       <c r="C85" t="s">
         <v>712</v>
@@ -9364,7 +9364,7 @@
         <v>41365</v>
       </c>
       <c r="B86" t="n">
-        <v>133962</v>
+        <v>164819</v>
       </c>
       <c r="C86" t="s">
         <v>721</v>
@@ -9506,7 +9506,7 @@
         <v>41365</v>
       </c>
       <c r="B88" t="n">
-        <v>133963</v>
+        <v>164820</v>
       </c>
       <c r="C88" t="s">
         <v>738</v>
@@ -9577,7 +9577,7 @@
         <v>41365</v>
       </c>
       <c r="B89" t="n">
-        <v>133964</v>
+        <v>164821</v>
       </c>
       <c r="C89" t="s">
         <v>746</v>
@@ -9648,7 +9648,7 @@
         <v>41365</v>
       </c>
       <c r="B90" t="n">
-        <v>133965</v>
+        <v>164822</v>
       </c>
       <c r="C90" t="s">
         <v>755</v>
@@ -9719,7 +9719,7 @@
         <v>41365</v>
       </c>
       <c r="B91" t="n">
-        <v>133966</v>
+        <v>164823</v>
       </c>
       <c r="C91" t="s">
         <v>762</v>
@@ -9780,7 +9780,7 @@
         <v>41365</v>
       </c>
       <c r="B92" t="n">
-        <v>133967</v>
+        <v>164824</v>
       </c>
       <c r="C92" t="s">
         <v>768</v>
@@ -9918,7 +9918,7 @@
         <v>41365</v>
       </c>
       <c r="B94" t="n">
-        <v>133968</v>
+        <v>164825</v>
       </c>
       <c r="C94" t="s">
         <v>784</v>
@@ -9993,7 +9993,7 @@
         <v>41365</v>
       </c>
       <c r="B95" t="n">
-        <v>133969</v>
+        <v>164826</v>
       </c>
       <c r="C95" t="s">
         <v>794</v>
@@ -10064,7 +10064,7 @@
         <v>41365</v>
       </c>
       <c r="B96" t="n">
-        <v>133970</v>
+        <v>164827</v>
       </c>
       <c r="C96" t="s">
         <v>802</v>
@@ -10129,7 +10129,7 @@
         <v>41365</v>
       </c>
       <c r="B97" t="n">
-        <v>133971</v>
+        <v>164828</v>
       </c>
       <c r="C97" t="s">
         <v>812</v>
@@ -10198,7 +10198,7 @@
         <v>41365</v>
       </c>
       <c r="B98" t="n">
-        <v>133972</v>
+        <v>164829</v>
       </c>
       <c r="C98" t="s">
         <v>819</v>
@@ -10273,7 +10273,7 @@
         <v>41365</v>
       </c>
       <c r="B99" t="n">
-        <v>133973</v>
+        <v>164830</v>
       </c>
       <c r="C99" t="s">
         <v>829</v>
@@ -10348,7 +10348,7 @@
         <v>41365</v>
       </c>
       <c r="B100" t="n">
-        <v>133974</v>
+        <v>164831</v>
       </c>
       <c r="C100" t="s">
         <v>839</v>
@@ -10409,7 +10409,7 @@
         <v>41365</v>
       </c>
       <c r="B101" t="n">
-        <v>133975</v>
+        <v>164832</v>
       </c>
       <c r="C101" t="s">
         <v>845</v>
@@ -10480,7 +10480,7 @@
         <v>41365</v>
       </c>
       <c r="B102" t="n">
-        <v>133976</v>
+        <v>164833</v>
       </c>
       <c r="C102" t="s">
         <v>852</v>
@@ -10626,7 +10626,7 @@
         <v>41365</v>
       </c>
       <c r="B104" t="n">
-        <v>133977</v>
+        <v>164834</v>
       </c>
       <c r="C104" t="s">
         <v>868</v>
@@ -10701,7 +10701,7 @@
         <v>41365</v>
       </c>
       <c r="B105" t="n">
-        <v>133978</v>
+        <v>164835</v>
       </c>
       <c r="C105" t="s">
         <v>878</v>
@@ -10772,7 +10772,7 @@
         <v>41365</v>
       </c>
       <c r="B106" t="n">
-        <v>133979</v>
+        <v>164836</v>
       </c>
       <c r="C106" t="s">
         <v>885</v>
@@ -10914,7 +10914,7 @@
         <v>41365</v>
       </c>
       <c r="B108" t="n">
-        <v>133980</v>
+        <v>164837</v>
       </c>
       <c r="C108" t="s">
         <v>899</v>
@@ -10981,7 +10981,7 @@
         <v>41365</v>
       </c>
       <c r="B109" t="n">
-        <v>133981</v>
+        <v>164838</v>
       </c>
       <c r="C109" t="s">
         <v>906</v>
@@ -11052,7 +11052,7 @@
         <v>41365</v>
       </c>
       <c r="B110" t="n">
-        <v>133982</v>
+        <v>164839</v>
       </c>
       <c r="C110" t="s">
         <v>913</v>
@@ -11123,7 +11123,7 @@
         <v>41365</v>
       </c>
       <c r="B111" t="n">
-        <v>133983</v>
+        <v>164840</v>
       </c>
       <c r="C111" t="s">
         <v>922</v>
@@ -11190,7 +11190,7 @@
         <v>41365</v>
       </c>
       <c r="B112" t="n">
-        <v>133984</v>
+        <v>164841</v>
       </c>
       <c r="C112" t="s">
         <v>929</v>
@@ -11261,7 +11261,7 @@
         <v>41365</v>
       </c>
       <c r="B113" t="n">
-        <v>133985</v>
+        <v>164842</v>
       </c>
       <c r="C113" t="s">
         <v>936</v>
@@ -11332,7 +11332,7 @@
         <v>41365</v>
       </c>
       <c r="B114" t="n">
-        <v>133986</v>
+        <v>164843</v>
       </c>
       <c r="C114" t="s">
         <v>942</v>
@@ -11403,7 +11403,7 @@
         <v>41365</v>
       </c>
       <c r="B115" t="n">
-        <v>133987</v>
+        <v>164844</v>
       </c>
       <c r="C115" t="s">
         <v>951</v>
@@ -11474,7 +11474,7 @@
         <v>41365</v>
       </c>
       <c r="B116" t="n">
-        <v>133988</v>
+        <v>164845</v>
       </c>
       <c r="C116" t="s">
         <v>959</v>
@@ -11545,7 +11545,7 @@
         <v>41365</v>
       </c>
       <c r="B117" t="n">
-        <v>133989</v>
+        <v>164846</v>
       </c>
       <c r="C117" t="s">
         <v>966</v>
@@ -11616,7 +11616,7 @@
         <v>41365</v>
       </c>
       <c r="B118" t="n">
-        <v>133990</v>
+        <v>164847</v>
       </c>
       <c r="C118" t="s">
         <v>972</v>
@@ -11687,7 +11687,7 @@
         <v>41365</v>
       </c>
       <c r="B119" t="n">
-        <v>133991</v>
+        <v>164848</v>
       </c>
       <c r="C119" t="s">
         <v>980</v>
@@ -11825,7 +11825,7 @@
         <v>41365</v>
       </c>
       <c r="B121" t="n">
-        <v>133992</v>
+        <v>164849</v>
       </c>
       <c r="C121" t="s">
         <v>993</v>
@@ -11892,7 +11892,7 @@
         <v>41365</v>
       </c>
       <c r="B122" t="n">
-        <v>133993</v>
+        <v>164850</v>
       </c>
       <c r="C122" t="s">
         <v>1000</v>
@@ -11963,7 +11963,7 @@
         <v>41365</v>
       </c>
       <c r="B123" t="n">
-        <v>133994</v>
+        <v>164851</v>
       </c>
       <c r="C123" t="s">
         <v>1008</v>
@@ -12034,7 +12034,7 @@
         <v>41365</v>
       </c>
       <c r="B124" t="n">
-        <v>133995</v>
+        <v>164852</v>
       </c>
       <c r="C124" t="s">
         <v>1015</v>
@@ -12105,7 +12105,7 @@
         <v>41365</v>
       </c>
       <c r="B125" t="n">
-        <v>133996</v>
+        <v>164853</v>
       </c>
       <c r="C125" t="s">
         <v>1022</v>
@@ -12176,7 +12176,7 @@
         <v>41365</v>
       </c>
       <c r="B126" t="n">
-        <v>133997</v>
+        <v>164854</v>
       </c>
       <c r="C126" t="s">
         <v>1030</v>
@@ -12247,7 +12247,7 @@
         <v>41365</v>
       </c>
       <c r="B127" t="n">
-        <v>133998</v>
+        <v>164855</v>
       </c>
       <c r="C127" t="s">
         <v>1038</v>
@@ -12375,7 +12375,7 @@
         <v>41365</v>
       </c>
       <c r="B129" t="n">
-        <v>133999</v>
+        <v>164856</v>
       </c>
       <c r="C129" t="s">
         <v>1053</v>
@@ -12432,7 +12432,7 @@
         <v>41365</v>
       </c>
       <c r="B130" t="n">
-        <v>134000</v>
+        <v>164857</v>
       </c>
       <c r="C130" t="s">
         <v>1060</v>
@@ -12503,7 +12503,7 @@
         <v>41365</v>
       </c>
       <c r="B131" t="n">
-        <v>134001</v>
+        <v>164858</v>
       </c>
       <c r="C131" t="s">
         <v>1068</v>
@@ -12574,7 +12574,7 @@
         <v>41365</v>
       </c>
       <c r="B132" t="n">
-        <v>134002</v>
+        <v>164859</v>
       </c>
       <c r="C132" t="s">
         <v>1076</v>
